--- a/RE_FRAMEWORK_PROJECTS/RE_FRAMEWORK_WITH_EXCEL/Data/Config.xlsx
+++ b/RE_FRAMEWORK_PROJECTS/RE_FRAMEWORK_WITH_EXCEL/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Documents\UiPath\RE_FRAMEWORK_WITH_EXCEL\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\USE_Cases\RE_FRAMEWORK_PROJECTS\RE_FRAMEWORK_WITH_EXCEL\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450"/>
+    <workbookView xWindow="-10245" yWindow="17505" windowWidth="21255" windowHeight="9450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2794,8 +2794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
